--- a/Config/Datas/ItemData.xlsx
+++ b/Config/Datas/ItemData.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GoHo\Documents\GitHub\queen\配置表\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goho/Documents/GitHub/goblin/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98419475-9782-4D7A-8A9A-6F8E8596B42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F6CCBA-307C-4847-A84F-EE19147F60D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemInfo" sheetId="1" r:id="rId1"/>
-    <sheet name="RewardPackageInfo" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>##var</t>
   </si>
@@ -81,21 +80,6 @@
   </si>
   <si>
     <t>金币</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Rewards</t>
-  </si>
-  <si>
-    <t>(list#sep=|),int</t>
-  </si>
-  <si>
-    <t>权重</t>
-  </si>
-  <si>
-    <t>1001|1|10|100|1002|2|5|200</t>
   </si>
   <si>
     <t>Stack</t>
@@ -103,6 +87,18 @@
   </si>
   <si>
     <t>金光闪闪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲钱来的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪耀闪耀</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -110,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +118,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -529,26 +526,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="8" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.125" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -559,7 +556,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -574,7 +571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -600,7 +597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -626,7 +623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="B4" s="2">
         <v>1001</v>
       </c>
@@ -646,7 +643,30 @@
         <v>18</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="2">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -654,78 +674,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="3" width="13.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="52.125" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="2">
-        <v>1001</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>